--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/pl_PL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/pl_PL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5268">
   <si>
     <t>translation_group</t>
   </si>
@@ -15775,12 +15775,6 @@
   </si>
   <si>
     <t xml:space="preserve"> powiadomienia</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16167,17 +16161,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54824,18 +54818,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5252</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5253</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54845,10 +54831,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5254</v>
+        <v>5252</v>
       </c>
       <c r="D2763" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54859,10 +54845,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5256</v>
+        <v>5254</v>
       </c>
       <c r="D2764" t="s">
-        <v>5257</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54873,10 +54859,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5258</v>
+        <v>5256</v>
       </c>
       <c r="D2765" t="s">
-        <v>5259</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54887,10 +54873,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5260</v>
+        <v>5258</v>
       </c>
       <c r="D2766" t="s">
-        <v>5261</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54901,10 +54887,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5262</v>
+        <v>5260</v>
       </c>
       <c r="D2767" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54915,10 +54901,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="D2768" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54929,10 +54915,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5266</v>
+        <v>5264</v>
       </c>
       <c r="D2769" t="s">
-        <v>5267</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54971,11 +54957,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5268</v>
+        <v>5266</v>
       </c>
       <c r="D2772" t="s">
-        <v>5269</v>
-      </c>
+        <v>5267</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/pl_PL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/pl_PL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5943">
   <si>
     <t>translation_group</t>
   </si>
@@ -10214,7 +10214,7 @@
     <t>Ustawienia SEO</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Wypełnij pola, aby uzyskać maksymalne wyniki podczas wyszukiwania swojej witryny w wyszukiwarkach.</t>
@@ -17251,6 +17251,613 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Witamy w Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Użyj Microweber, aby zbudować swoją stronę internetową, sklep internetowy lub blog.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Twórz i edytuj treści, sprzedawaj online, zarządzaj zamówieniami i klientami.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Usunąć</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Opuszczony wózek</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Używasz tego szablonu.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Zmiana wpłynie tylko na bieżącą stronę.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Zezwalaj na wiele szablonów</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Jeśli zezwolisz na wiele szablonów, będziesz mógł używać różnych szablonów podczas tworzenia nowych stron.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Ustawienia systemowe poczty e-mail</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Dostarczaj wiadomości związane z nową rejestracją, resetowaniem haseł i innymi funkcjami systemu.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Dawny. Nazwa Twojej witryny</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Ogólne ustawienia dostawcy poczty e-mail</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Skonfiguruj dostawcę poczty e-mail.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Ogólny dostawca poczty e-mail będzie dostarczał wszystkie wiadomości związane ze stroną internetową. W tym komunikaty systemowe i wiadomości z formularza kontaktowego.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Logo witryny internetowej</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Wybierz logo swojej witryny.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Prześlij logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Witryna internetowa Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Zmiana języka domyślnego ...</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Wyczyść pamięć podręczną..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Zainstaluj moduł wielojęzyczny</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Zarejestrowani użytkownicy mogą automatycznie otrzymać od Ciebie automatyczną wiadomość e-mail. Zobacz ustawienia i opublikuj swoje wiadomości.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Wyślij wiadomość e-mail o rejestracji nowego użytkownika do administratorów</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Czy chcesz, aby administratorzy otrzymywali e-mail, gdy nowy użytkownik zostanie zarejestrowany?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber to darmowy kreator stron internetowych typu `` przeciągnij i upuść '' oraz CMS. Jest na licencji MIT i używamy frameworka Laravel PHP</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Suwak</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Wysyłka na adres</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Odbiór z adresu</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Ustawienia ogólne</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Integracje z pocztą e-mail</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Nie masz systemowej konfiguracji poczty e-mail i smtp.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Skonfiguruj tutaj ustawienia systemu.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Globalne ustawienia formularza kontaktowego</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Opcje wysyłania e-maili</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Nadawca globalny</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Użyj niestandardowych ustawień nadawcy</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Użyj niestandardowych ustawień nadawcy dla globalnych formularzy kontaktowych.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Domyślnie będziemy korzystać z ustawień poczty e-mail systemu serwisu.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Tutaj możesz zmienić systemowe ustawienia poczty e-mail.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Odbiorcy globalni</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Wysyłaj dane formularzy kontaktowych do odbiorców na całym świecie, gdy zostaną przesłane</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Na adresy e-mail</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Adresy e-mail odbiorców rozdzielane przecinkami.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Skontaktuj się z dostawcą usług hostingowych, aby włączyć rozszerzenie PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elementy</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 miesiące temu</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Usuń favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Zwyczaj</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Produkty V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Oś czasu</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Biała etykieta WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Liczba widocznych referencji</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Szablon modułu uległ zmianie</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Wersje treści</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Domyślne układy i elementy</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Lista strzałek</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Lista sprawdzona</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Tekst w tle</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Tytuł z tekstem</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Ikona z tekstem</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Dwie kolumny tekstowe</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Dwie kolumny tekstowe z ikoną i tytułem</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Obraz z tytułem i tekstem</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Tekst z obrazem i tytułem</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Tekst z obrazem</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Włącz komentarze</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Ustawienia Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skonfiguruj swoje preferencje captcha z </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Aktualne ustawienia formularza kontaktowego</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Nazwa formularza kontaktowego</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Jak nazywa się ten formularz kontaktowy?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Odbiorcy</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Wysyłaj dane z formularza kontaktowego do niestandardowych odbiorców, gdy zostaną przesłane</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Użyj niestandardowych ustawień odbiorców dla bieżącego formularza kontaktowego.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Domyślnie będziemy korzystać z ustawień globalnych formularza kontaktowego.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Tutaj możesz zmienić globalne ustawienia formularza kontaktowego.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Automatyczna odpowiedź na wiadomość do użytkownika</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Włącz automatyczną odpowiedź na wiadomość do użytkownika</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Zezwól użytkownikom na otrzymywanie wiadomości e-mail z podziękowaniem po subskrypcji.</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Temat odpowiedzi automatycznej</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Automatyczne odpowiedzi umożliwiają skonfigurowanie automatycznych odpowiedzi na przychodzące wiadomości e-mail</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Automatyczna odpowiedź na wiadomość</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Automatyczna odpowiedź e-mail odesłana do użytkownika</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Automatycznie odpowiadaj na niestandardowego nadawcę</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Użyj niestandardowych ustawień nadawcy dla bieżącego formularza kontaktowego.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Automatyczna odpowiedź z adresu e-mail</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Automatyczna odpowiedź od imienia i nazwiska</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Automatyczna odpowiedź na e-mail</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Gdy użytkownik otrzyma wiadomość z automatyczną odpowiedzią, może odpowiedzieć, aby odpowiedzieć na wiadomość e-mail.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Automatycznie odpowiadaj na załączniki do wiadomości e-mail</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Nie masz jeszcze żadnych postów</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Utwórz swój pierwszy post już teraz.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Utwórz wpis</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Jak pisać opisy produktów, które sprzedają się
+                                                    Jedną z najlepszych rzeczy, które możesz zrobić, aby Twój sklep odniósł sukces, jest zainwestowanie czasu w pisanie świetnych opisów produktów. Chcesz podać szczegółowe, ale zwięzłe informacje, które zachęcą potencjalnych klientów do zakupu.
+                                                    Myśl jak konsument
+                                                    Pomyśl o tym, co Ty jako konsument chciałbyś wiedzieć, a następnie umieść te cechy w swoim opisie. Na ubrania: materiały i dopasowanie. W przypadku żywności: składniki i sposób przygotowania. Punktory są Twoimi przyjaciółmi, gdy wymieniasz
+                                                   funkcje - spróbuj
+                                                            ograniczyć każdy z nich do 5-8 słów.</t>
   </si>
 </sst>
 </file>
@@ -17589,7 +18196,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67897,6 +68504,1757 @@
         <v>3638</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5768</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5770</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5772</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5774</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5776</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5778</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5780</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3852</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5829</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5831</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5833</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3237</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5845</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5863</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5873</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5875</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5877</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4973</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>4241</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5934</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5935</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5936</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5937</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5939</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5940</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/pl_PL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/pl_PL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6241">
   <si>
     <t>translation_group</t>
   </si>
@@ -17858,6 +17858,900 @@
                                                     Pomyśl o tym, co Ty jako konsument chciałbyś wiedzieć, a następnie umieść te cechy w swoim opisie. Na ubrania: materiały i dopasowanie. W przypadku żywności: składniki i sposób przygotowania. Punktory są Twoimi przyjaciółmi, gdy wymieniasz
                                                    funkcje - spróbuj
                                                             ograniczyć każdy z nich do 5-8 słów.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Język administratora</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Edytor kodu</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>tytuły</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Tytuły 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Tytuły 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Tytuły 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Tytuły 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Tytuły 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Tytuły 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Tytuły 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Tytuły 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>blok tekstowy</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Blok tekstowy 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>funkcje</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Funkcje 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Funkcje 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Funkcje 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Funkcje 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>siatki</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menu - skórka-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - skórka-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menu - skórka-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - skórka-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Menu - skóra-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>stopki</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Stopki 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Stopki 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Stopki 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Stopki 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>inny</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>cennik</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Cennik 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Domyślne układy</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Brak treści tutaj</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Pola niestandardowe są zapisywane</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Istniejące pola</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Wybierz z istniejących pól poniżej</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dodaj nowe pola</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Dodaj nowe pole niestandardowe z poniższej listy</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Twoje pola</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lista dodanych pól niestandardowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">powtórz w pionie </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Rodzina czcionek</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Narzuta</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Tryb mieszania</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Pojemnik</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Rodzaj kontenera</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animacje</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Ponowne ładowanie stylów</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Linki do</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Pakiet podglądu</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Próbny</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Posługiwać się</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Aktualny</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Zmień kolejność</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Przekierowanie przeglądarki</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integracja</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Samodzielny aktualizator</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Aby zainstalować ten pakiet, potrzebujesz klucza licencyjnego</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Ten pakiet jest premium i musisz mieć klucz licencyjny, aby go zainstalować</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Potrzebujesz klucza licencyjnego</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licencja aktywowana</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Ponowne ładowanie strony</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Licencja nie została aktywowana</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Aktualizacje systemu</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Sprawdź aktualizacje systemu</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Powrót do listy</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Kategoria musi mieć nazwę</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Czy kategoria jest ukryta?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Jeśli ustawisz to na TAK, ta kategoria będzie ukryta na stronie</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Wzmianka</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Twój koszyk jest pusty.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Znalezione rezultaty</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Jeśli wybierzesz Procent z pola wyboru, zostanie on automatycznie wyliczony na podstawie ceny i ceny oferty produktu.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>wartości.wielojęzyczny.tytuł.pl_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>iuuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Przejdź do kasy</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Wyświetlanie</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>wyniki)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Tytuł strony — prawy bułka tarta</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Tytuł strony — lewy bułka tarta</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Warunki korzystania</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Dostawa i zwroty</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>Informacje wysyłkowe</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Około 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Około 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Około 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Dom 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Dom 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Aby zmienić szablon, musisz kliknąć przycisk Zastosuj szablon</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Szukaj według kryteriów</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Identyfikator zamówienia</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Data, od</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Ustaw zamówienia od daty</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Data do</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Ustaw zamówienia na bieżąco</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Kwota zamówienia od</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Pokaż zamówienie z minimalną kwotą</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Kwota zamówienia do</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Pokaż zamówienie z maksymalną kwotą</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Szukaj według produktów...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Szukaj według produktów</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Status płatności</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Bezpłatne wyszukiwanie przez telefon, imię i nazwisko, e-mail itp...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Prześlij te kryteria</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Zresetuj filtr</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Eksportuj wszystko</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Wybierz sortowanie</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Data zamówienia</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Nowy &gt; Stary]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Stare &gt; Nowe]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Wysoki &gt; Niski]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Niski &gt; Wysoki]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>tłumaczenia z modułu wielojęzycznego zostały znalezione w Twojej bazie danych.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Ostrzeżenie! Zmiana domyślnego języka może zepsuć tłumaczenia w Twojej witrynie.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Czy na pewno chcesz kontynuować?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Ostrzeżenie! Zmiana domyślnego języka może zepsuć Twoją witrynę.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Szczegóły dostawy</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>zamówienie nie zostało jeszcze zakończone</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>zamówienie zakończone</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Utworzono w</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Zaktualizowano w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szybki podgląd </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Zastąp wartości językowe</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Tłumaczenia są importowane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nie znaleziono tłumaczeń w bazie danych. Czy chcesz zaimportować tłumaczenia? </t>
   </si>
 </sst>
 </file>
@@ -17881,10 +18775,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17895,7 +18786,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18196,7 +19087,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70258,8 +71149,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>6033</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>6035</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>6037</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6088</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6092</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6113</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6115</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6118</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5940</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6128</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6128</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6131</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6135</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6136</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6137</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6150</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6159</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6160</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6161</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6162</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>6170</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6171</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6172</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6173</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6174</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6176</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6178</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6179</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6180</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6182</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6186</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6187</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6188</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6189</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6190</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6191</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6192</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6193</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6194</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6195</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6196</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6197</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6198</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6199</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6200</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6201</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6202</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6203</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6204</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6205</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6206</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6207</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6208</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6209</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6210</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6211</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6212</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6213</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6214</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6215</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6216</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6217</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6218</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6219</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6220</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6221</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6222</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6223</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6224</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4366</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6225</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6226</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6227</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6228</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6229</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6230</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6231</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6232</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6233</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6234</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6235</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6236</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6237</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6238</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6240</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70271,5 +73796,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/pl_PL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/pl_PL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6051">
   <si>
     <t>translation_group</t>
   </si>
@@ -10217,7 +10217,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Wypełnij pola, aby uzyskać maksymalne wyniki podczas wyszukiwania swojej witryny w wyszukiwarkach.</t>
+    <t>Wypełnij pola, aby uzyskać maksymalne wyniki podczas wyszukiwania witryny w wyszukiwarkach.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17256,13 +17256,13 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Witamy w Microweber</t>
+    <t>Witamy w Microweberze</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Użyj Microweber, aby zbudować swoją stronę internetową, sklep internetowy lub blog.</t>
+    <t>Użyj Microweber do zbudowania swojej strony internetowej, sklepu internetowego lub bloga.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
@@ -17280,7 +17280,7 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Opuszczony wózek</t>
+    <t>Porzucone wózki</t>
   </si>
   <si>
     <t>You are using this template.</t>
@@ -17310,13 +17310,13 @@
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Ustawienia systemowe poczty e-mail</t>
+    <t>Systemowe ustawienia poczty e-mail strony internetowej</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Dostarczaj wiadomości związane z nową rejestracją, resetowaniem haseł i innymi funkcjami systemu.</t>
+    <t>Dostarczaj wiadomości związane z nową rejestracją, resetowaniem hasła i innymi funkcjonalnościami systemu.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17325,7 +17325,7 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Dawny. Nazwa Twojej witryny</t>
+    <t>Były. Twoja nazwa witryny</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17343,19 +17343,19 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Ogólny dostawca poczty e-mail będzie dostarczał wszystkie wiadomości związane ze stroną internetową. W tym komunikaty systemowe i wiadomości z formularza kontaktowego.</t>
+    <t>Ogólny dostawca poczty elektronicznej będzie dostarczał wszystkie wiadomości związane z witryną. W tym komunikaty systemowe i komunikaty z formularza kontaktowego.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Logo witryny internetowej</t>
+    <t>Logo witryny</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Wybierz logo swojej witryny.</t>
+    <t>Wybierz logo dla swojej witryny.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17367,13 +17367,13 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Witryna internetowa Favicon</t>
+    <t>Favicon witryny</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Zmiana języka domyślnego ...</t>
+    <t>Zmiana domyślnego języka..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17391,28 +17391,31 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Użytkownicy mogą zarejestrować się za pomocą tymczasowych adresów e-mail, takich jak - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Zarejestrowani użytkownicy mogą automatycznie otrzymać od Ciebie automatyczną wiadomość e-mail. Zobacz ustawienia i opublikuj swoje wiadomości.</t>
+    <t>Zarejestrowani użytkownicy mogą automatycznie otrzymywać od Ciebie automatyczną wiadomość e-mail. Zobacz ustawienia i publikuj swoje wiadomości.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Wyślij wiadomość e-mail o rejestracji nowego użytkownika do administratorów</t>
+    <t>Wyślij wiadomość e-mail dotyczącą rejestracji nowego użytkownika do administratorów</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Czy chcesz, aby administratorzy otrzymywali e-mail, gdy nowy użytkownik zostanie zarejestrowany?</t>
+    <t>Czy chcesz, aby administratorzy otrzymywali e-mail po zarejestrowaniu nowego użytkownika?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber to darmowy kreator stron internetowych typu `` przeciągnij i upuść '' oraz CMS. Jest na licencji MIT i używamy frameworka Laravel PHP</t>
+    <t>Microweber to darmowy kreator stron internetowych typu „przeciągnij i upuść” typu open source oraz CMS. Jest na licencji MIT i używamy frameworka PHP Laravel</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17442,7 +17445,7 @@
     <t>E-mail Integrations</t>
   </si>
   <si>
-    <t>Integracje z pocztą e-mail</t>
+    <t>Integracje poczty e-mail</t>
   </si>
   <si>
     <t>You don't have system e-mail and smtp setup.</t>
@@ -17454,7 +17457,7 @@
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Skonfiguruj tutaj ustawienia systemu.</t>
+    <t>Tutaj skonfiguruj ustawienia systemowe.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
@@ -17466,13 +17469,13 @@
     <t>E-mail sending options</t>
   </si>
   <si>
-    <t>Opcje wysyłania e-maili</t>
+    <t>Opcje wysyłania wiadomości e-mail</t>
   </si>
   <si>
     <t>Global sender</t>
   </si>
   <si>
-    <t>Nadawca globalny</t>
+    <t>Globalny nadawca</t>
   </si>
   <si>
     <t>Use custom sender settings</t>
@@ -17508,7 +17511,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Wysyłaj dane formularzy kontaktowych do odbiorców na całym świecie, gdy zostaną przesłane</t>
+    <t>Wysyłaj dane formularzy kontaktowych do globalnych odbiorców, gdy zostaną przesłane</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17520,7 +17523,7 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Adresy e-mail odbiorców rozdzielane przecinkami.</t>
+    <t>Adresy e-mail odbiorców oddzielone przecinkiem.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
@@ -17547,7 +17550,7 @@
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>Usuń favicon</t>
+    <t>Usuń favikonę</t>
   </si>
   <si>
     <t>Custom</t>
@@ -17565,7 +17568,7 @@
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>Produkty V2</t>
+    <t>ProduktyV2</t>
   </si>
   <si>
     <t>Timeline</t>
@@ -17583,13 +17586,13 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
-    <t>Liczba widocznych referencji</t>
+    <t>Liczba widocznych świadectw</t>
   </si>
   <si>
     <t>Module template has changed</t>
   </si>
   <si>
-    <t>Szablon modułu uległ zmianie</t>
+    <t>Szablon modułu został zmieniony</t>
   </si>
   <si>
     <t>Content versions</t>
@@ -17616,13 +17619,13 @@
     <t>Checked List</t>
   </si>
   <si>
-    <t>Lista sprawdzona</t>
+    <t>Sprawdzona lista</t>
   </si>
   <si>
     <t>Background Text</t>
   </si>
   <si>
-    <t>Tekst w tle</t>
+    <t>Tekst tła</t>
   </si>
   <si>
     <t>Title with Text</t>
@@ -17676,13 +17679,13 @@
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>Ustawienia Captcha</t>
+    <t>Ustawienia Captchy</t>
   </si>
   <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Skonfiguruj swoje preferencje captcha z </t>
+    <t xml:space="preserve">Ustaw swoje preferencje captcha z </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
@@ -17709,13 +17712,13 @@
     <t>Receivers</t>
   </si>
   <si>
-    <t>Odbiorcy</t>
+    <t>Odbiorniki</t>
   </si>
   <si>
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Wysyłaj dane z formularza kontaktowego do niestandardowych odbiorców, gdy zostaną przesłane</t>
+    <t>Wyślij dane formularza kontaktowego do niestandardowych odbiorców po przesłaniu</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
@@ -17727,7 +17730,7 @@
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Domyślnie będziemy korzystać z ustawień globalnych formularza kontaktowego.</t>
+    <t>Domyślnie będziemy korzystać z globalnych ustawień formularza kontaktowego.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
@@ -17739,27 +17742,24 @@
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Automatyczna odpowiedź na wiadomość do użytkownika</t>
+    <t>Automatyczna odpowiedź na wiadomość dla użytkownika</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Włącz automatyczną odpowiedź na wiadomość do użytkownika</t>
+    <t>Włącz automatyczną odpowiedź na wiadomość dla użytkownika</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Zezwól użytkownikom na otrzymywanie wiadomości e-mail z podziękowaniem po subskrypcji.</t>
+    <t>Zezwól użytkownikom na otrzymywanie „E-maili z podziękowaniami po subskrypcji”.</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Temat odpowiedzi automatycznej</t>
-  </si>
-  <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
@@ -17769,19 +17769,19 @@
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>Automatyczna odpowiedź na wiadomość</t>
+    <t>Wiadomość z automatyczną odpowiedzią</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>Automatyczna odpowiedź e-mail odesłana do użytkownika</t>
+    <t>Automatyczna odpowiedź e-mail odsyłana do użytkownika</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Automatycznie odpowiadaj na niestandardowego nadawcę</t>
+    <t>Automatyczna odpowiedź niestandardowego nadawcy</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
@@ -17799,13 +17799,13 @@
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Automatyczna odpowiedź od imienia i nazwiska</t>
+    <t>Automatyczna odpowiedź z nazwy</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Automatyczna odpowiedź na e-mail</t>
+    <t>Automatyczna odpowiedź na wiadomość e-mail</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
@@ -17817,12 +17817,15 @@
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Automatycznie odpowiadaj na załączniki do wiadomości e-mail</t>
+    <t>Automatyczne odpowiadanie na załączniki wiadomości e-mail</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
+    <t>Jeśli chcesz dołączyć obrazy og, musisz przesłać je do galerii z „Dodaj media”</t>
+  </si>
+  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
@@ -17838,7 +17841,7 @@
     <t>Create a Post</t>
   </si>
   <si>
-    <t>Utwórz wpis</t>
+    <t>Utwórz post</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17852,12 +17855,12 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Jak pisać opisy produktów, które sprzedają się
-                                                    Jedną z najlepszych rzeczy, które możesz zrobić, aby Twój sklep odniósł sukces, jest zainwestowanie czasu w pisanie świetnych opisów produktów. Chcesz podać szczegółowe, ale zwięzłe informacje, które zachęcą potencjalnych klientów do zakupu.
+    <t>Jak pisać opisy produktów, które sprzedają
+                                                    Jedną z najlepszych rzeczy, które możesz zrobić, aby Twój sklep odniósł sukces, jest poświęcenie czasu na napisanie świetnych opisów produktów. Chcesz podać szczegółowe, ale zwięzłe informacje, które zachęcą potencjalnych klientów do zakupu.
                                                     Myśl jak konsument
-                                                    Pomyśl o tym, co Ty jako konsument chciałbyś wiedzieć, a następnie umieść te cechy w swoim opisie. Na ubrania: materiały i dopasowanie. W przypadku żywności: składniki i sposób przygotowania. Punktory są Twoimi przyjaciółmi, gdy wymieniasz
-                                                   funkcje - spróbuj
-                                                            ograniczyć każdy z nich do 5-8 słów.</t>
+                                                    Zastanów się, czego jako konsument chciałbyś wiedzieć, a następnie uwzględnij te cechy w swoim opisie. W przypadku ubrań: materiały i krój. W przypadku jedzenia: składniki i sposób przygotowania. Wypunktowania są Twoimi przyjaciółmi podczas wymieniania
+                                                   obiektów — spróbuj ograniczyć
+                                                            każdy z nich do 5-8 słów.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17866,349 +17869,277 @@
     <t>Język administratora</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Dodaj wpis</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Dodaj podstronę</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategoria usunięta</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Zawartość usunięta</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Kategorie wyszukiwania</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Twórz treści</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Karta</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Każdy</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Identyfikator Opis</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>Identyfikator Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Czy na pewno chcesz usunąć?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Wrócić do</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>kategorie</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Pola niestandardowe są zapisywane</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Istniejące pola</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Wybierz spośród istniejących pól poniżej</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dodaj nowe pola</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Dodaj nowe niestandardowe pole z poniższej listy</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Twoje pola</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lista dodanych pól niestandardowych</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Zbiory</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Przekierowanie przeglądarki</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integracja</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Narzędzie eksportu importu</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Samodzielny aktualizator</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Pakiet podglądu</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Próbny</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Posługiwać się</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Aktualny</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Wyrazić</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Pierwsza klasa</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Kliknij i zbieraj</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Tło wideo</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Możesz aktywować moduł wielojęzyczny, aby używać wielu języków</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Tryb wielu języków</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktywuj tryb wielojęzyczny, aby mieć wiele języków dla swoich treści.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Tłumaczenia są importowane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nie znaleziono tłumaczeń w bazie danych. Czy chcesz zaimportować tłumaczenia? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Twój koszyk jest pusty.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Edytor kodu</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>tytuły</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Tytuły 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Tytuły 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Tytuły 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Tytuły 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Tytuły 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Tytuły 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Tytuły 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Tytuły 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>blok tekstowy</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Blok tekstowy 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>funkcje</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Funkcje 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Funkcje 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Funkcje 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Funkcje 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>siatki</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - skórka-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - skórka-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - skórka-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - skórka-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Menu - skóra-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>stopki</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Stopki 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Stopki 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Stopki 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Stopki 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>inny</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>cennik</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Cennik 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Domyślne układy</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Brak treści tutaj</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Pola niestandardowe są zapisywane</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Istniejące pola</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Wybierz z istniejących pól poniżej</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dodaj nowe pola</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Dodaj nowe pole niestandardowe z poniższej listy</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Twoje pola</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Lista dodanych pól niestandardowych</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Nowy import</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
   </si>
   <si>
-    <t xml:space="preserve">powtórz w pionie </t>
+    <t xml:space="preserve">powtórzyć w pionie </t>
   </si>
   <si>
     <t>Font Family</t>
@@ -18244,514 +18175,13 @@
     <t>Animations</t>
   </si>
   <si>
-    <t>Animacje</t>
+    <t>animacje</t>
   </si>
   <si>
     <t>Reloading styles</t>
   </si>
   <si>
     <t>Ponowne ładowanie stylów</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Linki do</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Pakiet podglądu</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Próbny</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Posługiwać się</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Aktualny</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Zmień kolejność</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Przekierowanie przeglądarki</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integracja</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Samodzielny aktualizator</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Aby zainstalować ten pakiet, potrzebujesz klucza licencyjnego</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Ten pakiet jest premium i musisz mieć klucz licencyjny, aby go zainstalować</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Potrzebujesz klucza licencyjnego</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licencja aktywowana</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Ponowne ładowanie strony</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licencja nie została aktywowana</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Aktualizacje systemu</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Sprawdź aktualizacje systemu</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Powrót do listy</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Kategoria musi mieć nazwę</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Czy kategoria jest ukryta?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Jeśli ustawisz to na TAK, ta kategoria będzie ukryta na stronie</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Wzmianka</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Twój koszyk jest pusty.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Znalezione rezultaty</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Jeśli wybierzesz Procent z pola wyboru, zostanie on automatycznie wyliczony na podstawie ceny i ceny oferty produktu.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>wartości.wielojęzyczny.tytuł.pl_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>iuuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Przejdź do kasy</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Wyświetlanie</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>wyniki)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Tytuł strony — prawy bułka tarta</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Tytuł strony — lewy bułka tarta</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Warunki korzystania</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Dostawa i zwroty</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>Informacje wysyłkowe</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Około 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Około 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Około 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Dom 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Dom 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Aby zmienić szablon, musisz kliknąć przycisk Zastosuj szablon</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Szukaj według kryteriów</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Identyfikator zamówienia</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Data, od</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Ustaw zamówienia od daty</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Data do</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Ustaw zamówienia na bieżąco</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Kwota zamówienia od</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Pokaż zamówienie z minimalną kwotą</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Kwota zamówienia do</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Pokaż zamówienie z maksymalną kwotą</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Szukaj według produktów...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Szukaj według produktów</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Status płatności</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Bezpłatne wyszukiwanie przez telefon, imię i nazwisko, e-mail itp...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Prześlij te kryteria</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Zresetuj filtr</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Eksportuj wszystko</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Wybierz sortowanie</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Data zamówienia</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Nowy &gt; Stary]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Stare &gt; Nowe]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Wysoki &gt; Niski]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Niski &gt; Wysoki]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>tłumaczenia z modułu wielojęzycznego zostały znalezione w Twojej bazie danych.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Ostrzeżenie! Zmiana domyślnego języka może zepsuć tłumaczenia w Twojej witrynie.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Czy na pewno chcesz kontynuować?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Ostrzeżenie! Zmiana domyślnego języka może zepsuć Twoją witrynę.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Szczegóły dostawy</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>zamówienie nie zostało jeszcze zakończone</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>zamówienie zakończone</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Utworzono w</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Zaktualizowano w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szybki podgląd </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Zastąp wartości językowe</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Tłumaczenia są importowane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nie znaleziono tłumaczeń w bazie danych. Czy chcesz zaimportować tłumaczenia? </t>
   </si>
 </sst>
 </file>
@@ -19087,7 +18517,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69800,7 +69230,7 @@
         <v>5789</v>
       </c>
       <c r="D2983" t="s">
-        <v>3852</v>
+        <v>5790</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69814,10 +69244,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="D2984" t="s">
-        <v>5791</v>
+        <v>5792</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69831,10 +69261,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
       <c r="D2985" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69848,10 +69278,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="D2986" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69865,10 +69295,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="D2987" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69882,10 +69312,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="D2988" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69899,10 +69329,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="D2989" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69916,10 +69346,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="D2990" t="s">
-        <v>5803</v>
+        <v>5804</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69933,10 +69363,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5804</v>
+        <v>5805</v>
       </c>
       <c r="D2991" t="s">
-        <v>5805</v>
+        <v>5806</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69950,10 +69380,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="D2992" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69967,10 +69397,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="D2993" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69984,10 +69414,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="D2994" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -70001,10 +69431,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="D2995" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -70018,10 +69448,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="D2996" t="s">
-        <v>5815</v>
+        <v>5816</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -70035,10 +69465,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5816</v>
+        <v>5817</v>
       </c>
       <c r="D2997" t="s">
-        <v>5817</v>
+        <v>5818</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -70052,10 +69482,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5818</v>
+        <v>5819</v>
       </c>
       <c r="D2998" t="s">
-        <v>5819</v>
+        <v>5820</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -70069,10 +69499,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="D2999" t="s">
-        <v>5821</v>
+        <v>5822</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -70086,10 +69516,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5822</v>
+        <v>5823</v>
       </c>
       <c r="D3000" t="s">
-        <v>5823</v>
+        <v>5824</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -70103,10 +69533,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5824</v>
+        <v>5825</v>
       </c>
       <c r="D3001" t="s">
-        <v>5825</v>
+        <v>5826</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -70120,10 +69550,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5826</v>
+        <v>5827</v>
       </c>
       <c r="D3002" t="s">
-        <v>5827</v>
+        <v>5828</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -70137,10 +69567,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5828</v>
+        <v>5829</v>
       </c>
       <c r="D3003" t="s">
-        <v>5829</v>
+        <v>5830</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -70154,10 +69584,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5830</v>
+        <v>5831</v>
       </c>
       <c r="D3004" t="s">
-        <v>5831</v>
+        <v>5832</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -70171,10 +69601,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
       <c r="D3005" t="s">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -70188,10 +69618,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5834</v>
+        <v>5835</v>
       </c>
       <c r="D3006" t="s">
-        <v>5835</v>
+        <v>5836</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -70205,10 +69635,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="D3007" t="s">
-        <v>5837</v>
+        <v>5838</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -70222,10 +69652,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5838</v>
+        <v>5839</v>
       </c>
       <c r="D3008" t="s">
-        <v>5839</v>
+        <v>5840</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70239,7 +69669,7 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5840</v>
+        <v>5841</v>
       </c>
       <c r="D3009" t="s">
         <v>3237</v>
@@ -70256,10 +69686,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5841</v>
+        <v>5842</v>
       </c>
       <c r="D3010" t="s">
-        <v>5842</v>
+        <v>5843</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70273,10 +69703,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5843</v>
+        <v>5844</v>
       </c>
       <c r="D3011" t="s">
-        <v>5844</v>
+        <v>5845</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70290,10 +69720,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5845</v>
+        <v>5846</v>
       </c>
       <c r="D3012" t="s">
-        <v>5845</v>
+        <v>5846</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70307,10 +69737,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5846</v>
+        <v>5847</v>
       </c>
       <c r="D3013" t="s">
-        <v>5846</v>
+        <v>5847</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70324,10 +69754,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5847</v>
+        <v>5848</v>
       </c>
       <c r="D3014" t="s">
-        <v>5848</v>
+        <v>5849</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70341,10 +69771,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5849</v>
+        <v>5850</v>
       </c>
       <c r="D3015" t="s">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70358,10 +69788,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5851</v>
+        <v>5852</v>
       </c>
       <c r="D3016" t="s">
-        <v>5852</v>
+        <v>5853</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70375,10 +69805,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5853</v>
+        <v>5854</v>
       </c>
       <c r="D3017" t="s">
-        <v>5854</v>
+        <v>5855</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70392,10 +69822,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5855</v>
+        <v>5856</v>
       </c>
       <c r="D3018" t="s">
-        <v>5856</v>
+        <v>5857</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70409,10 +69839,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5857</v>
+        <v>5858</v>
       </c>
       <c r="D3019" t="s">
-        <v>5858</v>
+        <v>5859</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70426,7 +69856,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5859</v>
+        <v>5860</v>
       </c>
       <c r="D3020" t="s">
         <v>1575</v>
@@ -70443,10 +69873,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5860</v>
+        <v>5861</v>
       </c>
       <c r="D3021" t="s">
-        <v>5861</v>
+        <v>5862</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70460,10 +69890,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5862</v>
+        <v>5863</v>
       </c>
       <c r="D3022" t="s">
-        <v>5863</v>
+        <v>5864</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70477,10 +69907,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5864</v>
+        <v>5865</v>
       </c>
       <c r="D3023" t="s">
-        <v>5865</v>
+        <v>5866</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70494,10 +69924,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5866</v>
+        <v>5867</v>
       </c>
       <c r="D3024" t="s">
-        <v>5867</v>
+        <v>5868</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70511,10 +69941,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5868</v>
+        <v>5869</v>
       </c>
       <c r="D3025" t="s">
-        <v>5869</v>
+        <v>5870</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70528,10 +69958,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5870</v>
+        <v>5871</v>
       </c>
       <c r="D3026" t="s">
-        <v>5871</v>
+        <v>5872</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70545,10 +69975,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="D3027" t="s">
-        <v>5873</v>
+        <v>5874</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70562,10 +69992,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5874</v>
+        <v>5875</v>
       </c>
       <c r="D3028" t="s">
-        <v>5875</v>
+        <v>5876</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70579,10 +70009,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="D3029" t="s">
-        <v>5877</v>
+        <v>5878</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70596,10 +70026,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5878</v>
+        <v>5879</v>
       </c>
       <c r="D3030" t="s">
-        <v>5879</v>
+        <v>5880</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70613,10 +70043,10 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5880</v>
+        <v>5881</v>
       </c>
       <c r="D3031" t="s">
-        <v>5881</v>
+        <v>5882</v>
       </c>
       <c r="E3031" t="s">
         <v>8</v>
@@ -70630,10 +70060,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5882</v>
+        <v>5883</v>
       </c>
       <c r="D3032" t="s">
-        <v>5883</v>
+        <v>5884</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70647,10 +70077,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5884</v>
+        <v>5885</v>
       </c>
       <c r="D3033" t="s">
-        <v>5885</v>
+        <v>5886</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70664,10 +70094,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5886</v>
+        <v>5887</v>
       </c>
       <c r="D3034" t="s">
-        <v>5887</v>
+        <v>5888</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70681,7 +70111,7 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5888</v>
+        <v>5889</v>
       </c>
       <c r="D3035" t="s">
         <v>4973</v>
@@ -70698,10 +70128,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5889</v>
+        <v>5890</v>
       </c>
       <c r="D3036" t="s">
-        <v>5890</v>
+        <v>5891</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70715,10 +70145,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5891</v>
+        <v>5892</v>
       </c>
       <c r="D3037" t="s">
-        <v>5892</v>
+        <v>5893</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70732,10 +70162,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5893</v>
+        <v>5894</v>
       </c>
       <c r="D3038" t="s">
-        <v>5894</v>
+        <v>5895</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70749,10 +70179,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5895</v>
+        <v>5896</v>
       </c>
       <c r="D3039" t="s">
-        <v>5896</v>
+        <v>5897</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70766,10 +70196,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5897</v>
+        <v>5898</v>
       </c>
       <c r="D3040" t="s">
-        <v>5898</v>
+        <v>5899</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70783,10 +70213,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5899</v>
+        <v>5900</v>
       </c>
       <c r="D3041" t="s">
-        <v>5900</v>
+        <v>5901</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70800,10 +70230,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5901</v>
+        <v>5902</v>
       </c>
       <c r="D3042" t="s">
-        <v>5902</v>
+        <v>5903</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70817,10 +70247,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5903</v>
+        <v>5904</v>
       </c>
       <c r="D3043" t="s">
-        <v>5904</v>
+        <v>5905</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70834,10 +70264,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5905</v>
+        <v>5906</v>
       </c>
       <c r="D3044" t="s">
-        <v>5906</v>
+        <v>5907</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70851,10 +70281,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5907</v>
+        <v>5908</v>
       </c>
       <c r="D3045" t="s">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70868,10 +70298,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5909</v>
+        <v>5910</v>
       </c>
       <c r="D3046" t="s">
-        <v>5910</v>
+        <v>5911</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70885,10 +70315,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5911</v>
+        <v>5912</v>
       </c>
       <c r="D3047" t="s">
-        <v>5912</v>
+        <v>1975</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -71075,7 +70505,7 @@
         <v>5933</v>
       </c>
       <c r="D3058" t="s">
-        <v>4241</v>
+        <v>5934</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -71089,10 +70519,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5934</v>
+        <v>5935</v>
       </c>
       <c r="D3059" t="s">
-        <v>5935</v>
+        <v>5936</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -71106,10 +70536,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5936</v>
+        <v>5937</v>
       </c>
       <c r="D3060" t="s">
-        <v>5937</v>
+        <v>5938</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -71123,10 +70553,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5938</v>
+        <v>5939</v>
       </c>
       <c r="D3061" t="s">
-        <v>5939</v>
+        <v>5940</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -71137,13 +70567,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5940</v>
+        <v>5941</v>
       </c>
       <c r="C3062" t="s">
-        <v>5941</v>
+        <v>5942</v>
       </c>
       <c r="D3062" t="s">
-        <v>5942</v>
+        <v>5943</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71157,10 +70587,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5943</v>
+        <v>5944</v>
       </c>
       <c r="D3063" t="s">
-        <v>5944</v>
+        <v>5945</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71174,10 +70604,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5945</v>
+        <v>5946</v>
       </c>
       <c r="D3064" t="s">
-        <v>5945</v>
+        <v>5947</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71191,10 +70621,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5946</v>
+        <v>5948</v>
       </c>
       <c r="D3065" t="s">
-        <v>5947</v>
+        <v>5949</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71208,10 +70638,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5948</v>
+        <v>5950</v>
       </c>
       <c r="D3066" t="s">
-        <v>5948</v>
+        <v>5951</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71225,10 +70655,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5949</v>
+        <v>5952</v>
       </c>
       <c r="D3067" t="s">
-        <v>5950</v>
+        <v>5953</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71242,10 +70672,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5951</v>
+        <v>5954</v>
       </c>
       <c r="D3068" t="s">
-        <v>5952</v>
+        <v>5955</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71259,10 +70689,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5953</v>
+        <v>5956</v>
       </c>
       <c r="D3069" t="s">
-        <v>5954</v>
+        <v>5957</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71276,10 +70706,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5955</v>
+        <v>5958</v>
       </c>
       <c r="D3070" t="s">
-        <v>5956</v>
+        <v>5959</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71293,10 +70723,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5957</v>
+        <v>5960</v>
       </c>
       <c r="D3071" t="s">
-        <v>5958</v>
+        <v>5961</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71310,10 +70740,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5959</v>
+        <v>5962</v>
       </c>
       <c r="D3072" t="s">
-        <v>5960</v>
+        <v>5963</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71327,10 +70757,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5961</v>
+        <v>5964</v>
       </c>
       <c r="D3073" t="s">
-        <v>5962</v>
+        <v>5965</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71344,10 +70774,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5963</v>
+        <v>5966</v>
       </c>
       <c r="D3074" t="s">
-        <v>5964</v>
+        <v>5966</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71361,10 +70791,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5965</v>
+        <v>5967</v>
       </c>
       <c r="D3075" t="s">
-        <v>5966</v>
+        <v>5968</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71378,10 +70808,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5967</v>
+        <v>5969</v>
       </c>
       <c r="D3076" t="s">
-        <v>5968</v>
+        <v>3514</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71395,10 +70825,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5969</v>
+        <v>5970</v>
       </c>
       <c r="D3077" t="s">
-        <v>5970</v>
+        <v>5971</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71412,10 +70842,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5971</v>
+        <v>5972</v>
       </c>
       <c r="D3078" t="s">
-        <v>5972</v>
+        <v>5973</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71429,10 +70859,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5973</v>
+        <v>5974</v>
       </c>
       <c r="D3079" t="s">
-        <v>5974</v>
+        <v>5975</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71446,10 +70876,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5975</v>
+        <v>5976</v>
       </c>
       <c r="D3080" t="s">
-        <v>5976</v>
+        <v>5977</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71463,10 +70893,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5977</v>
+        <v>5978</v>
       </c>
       <c r="D3081" t="s">
-        <v>5978</v>
+        <v>5979</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71480,10 +70910,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5979</v>
+        <v>5980</v>
       </c>
       <c r="D3082" t="s">
-        <v>5980</v>
+        <v>5981</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71497,10 +70927,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5981</v>
+        <v>5982</v>
       </c>
       <c r="D3083" t="s">
-        <v>5982</v>
+        <v>5983</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71514,10 +70944,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5983</v>
+        <v>5984</v>
       </c>
       <c r="D3084" t="s">
-        <v>5984</v>
+        <v>5985</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71531,10 +70961,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5985</v>
+        <v>5986</v>
       </c>
       <c r="D3085" t="s">
-        <v>5986</v>
+        <v>5987</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71548,10 +70978,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5987</v>
+        <v>5988</v>
       </c>
       <c r="D3086" t="s">
-        <v>5988</v>
+        <v>5989</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71565,7 +70995,7 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5989</v>
+        <v>5990</v>
       </c>
       <c r="D3087" t="s">
         <v>5990</v>
@@ -71585,7 +71015,7 @@
         <v>5991</v>
       </c>
       <c r="D3088" t="s">
-        <v>5992</v>
+        <v>5991</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71599,10 +71029,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3089" t="s">
         <v>5993</v>
-      </c>
-      <c r="D3089" t="s">
-        <v>5994</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71616,10 +71046,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3090" t="s">
         <v>5995</v>
-      </c>
-      <c r="D3090" t="s">
-        <v>5996</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71633,10 +71063,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3091" t="s">
         <v>5997</v>
-      </c>
-      <c r="D3091" t="s">
-        <v>5998</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71650,10 +71080,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D3092" t="s">
         <v>5999</v>
-      </c>
-      <c r="D3092" t="s">
-        <v>6000</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71667,10 +71097,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3093" t="s">
         <v>6001</v>
-      </c>
-      <c r="D3093" t="s">
-        <v>6002</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71684,10 +71114,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D3094" t="s">
         <v>6003</v>
-      </c>
-      <c r="D3094" t="s">
-        <v>6004</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71701,10 +71131,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D3095" t="s">
         <v>6005</v>
-      </c>
-      <c r="D3095" t="s">
-        <v>6006</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71718,10 +71148,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3096" t="s">
         <v>6007</v>
-      </c>
-      <c r="D3096" t="s">
-        <v>6008</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71735,10 +71165,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3097" t="s">
         <v>6009</v>
-      </c>
-      <c r="D3097" t="s">
-        <v>6010</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71752,7 +71182,7 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="D3098" t="s">
         <v>6011</v>
@@ -71806,7 +71236,7 @@
         <v>6016</v>
       </c>
       <c r="D3101" t="s">
-        <v>6017</v>
+        <v>1518</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71820,10 +71250,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3102" t="s">
         <v>6018</v>
-      </c>
-      <c r="D3102" t="s">
-        <v>6019</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71837,10 +71267,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3103" t="s">
         <v>6020</v>
-      </c>
-      <c r="D3103" t="s">
-        <v>6021</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71854,10 +71284,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3104" t="s">
         <v>6022</v>
-      </c>
-      <c r="D3104" t="s">
-        <v>6023</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71871,10 +71301,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3105" t="s">
         <v>6024</v>
-      </c>
-      <c r="D3105" t="s">
-        <v>6025</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71888,10 +71318,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3106" t="s">
         <v>6026</v>
-      </c>
-      <c r="D3106" t="s">
-        <v>6027</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71905,10 +71335,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3107" t="s">
         <v>6028</v>
-      </c>
-      <c r="D3107" t="s">
-        <v>6029</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71922,10 +71352,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3108" t="s">
         <v>6030</v>
-      </c>
-      <c r="D3108" t="s">
-        <v>6031</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71938,11 +71368,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>6032</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>6033</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71955,11 +71385,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>6032</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71973,7 +71403,7 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>6034</v>
+        <v>6033</v>
       </c>
       <c r="D3111" t="s">
         <v>6034</v>
@@ -71993,7 +71423,7 @@
         <v>6035</v>
       </c>
       <c r="D3112" t="s">
-        <v>6035</v>
+        <v>6036</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -72007,10 +71437,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>6036</v>
+        <v>6037</v>
       </c>
       <c r="D3113" t="s">
-        <v>6037</v>
+        <v>6038</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -72024,10 +71454,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>6038</v>
+        <v>6039</v>
       </c>
       <c r="D3114" t="s">
-        <v>6039</v>
+        <v>6040</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -72041,10 +71471,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>6040</v>
+        <v>6041</v>
       </c>
       <c r="D3115" t="s">
-        <v>6041</v>
+        <v>6042</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -72058,10 +71488,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6042</v>
+        <v>6043</v>
       </c>
       <c r="D3116" t="s">
-        <v>6043</v>
+        <v>6044</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -72075,10 +71505,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6044</v>
+        <v>6045</v>
       </c>
       <c r="D3117" t="s">
-        <v>6045</v>
+        <v>6046</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -72092,10 +71522,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6046</v>
+        <v>6047</v>
       </c>
       <c r="D3118" t="s">
-        <v>6047</v>
+        <v>6048</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -72109,1678 +71539,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>6048</v>
+        <v>6049</v>
       </c>
       <c r="D3119" t="s">
-        <v>6049</v>
+        <v>6050</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2730</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6118</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5940</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6128</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6128</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6160</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>6170</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6171</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6172</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6173</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6174</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6175</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6176</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6177</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6178</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6179</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6180</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6182</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6186</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6187</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6188</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6189</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6190</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6191</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6192</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6193</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6194</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6195</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6196</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6197</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6198</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6199</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6200</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6201</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6202</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6203</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6204</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6205</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6206</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6207</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6208</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6209</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6210</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6211</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6212</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6213</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6214</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6215</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6216</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6217</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6218</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6219</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6220</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6221</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6222</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6223</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6224</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4366</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6225</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6226</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6227</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6228</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6229</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6230</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6231</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6232</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6233</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6234</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6235</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6236</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6237</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6238</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6239</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6240</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
